--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.8398646862103</v>
+        <v>478.3995408182946</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.5548808002612</v>
+        <v>654.5673572457811</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.3012220011003</v>
+        <v>592.0963673612988</v>
       </c>
       <c r="AD2" t="n">
-        <v>384839.8646862103</v>
+        <v>478399.5408182946</v>
       </c>
       <c r="AE2" t="n">
-        <v>526554.8808002613</v>
+        <v>654567.3572457811</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266556928847628e-06</v>
+        <v>2.14117732996018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>476301.2220011003</v>
+        <v>592096.3673612988</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.448675058926</v>
+        <v>355.2647236364202</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.4587379717312</v>
+        <v>486.0888680528009</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.5756584179537</v>
+        <v>439.6972287158519</v>
       </c>
       <c r="AD3" t="n">
-        <v>282448.675058926</v>
+        <v>355264.7236364202</v>
       </c>
       <c r="AE3" t="n">
-        <v>386458.7379717312</v>
+        <v>486088.8680528009</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606105851554982e-06</v>
+        <v>2.715201630924588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.61284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>349575.6584179537</v>
+        <v>439697.2287158519</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.0464346060668</v>
+        <v>312.5333398335548</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.124563098007</v>
+        <v>427.6219035581162</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.4726749708753</v>
+        <v>386.8102692536399</v>
       </c>
       <c r="AD4" t="n">
-        <v>250046.4346060668</v>
+        <v>312533.3398335548</v>
       </c>
       <c r="AE4" t="n">
-        <v>342124.563098007</v>
+        <v>427621.9035581162</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.743774068103272e-06</v>
+        <v>2.947936581573387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62326388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>309472.6749708753</v>
+        <v>386810.26925364</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.9473878747199</v>
+        <v>290.019898406178</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.5701135879165</v>
+        <v>396.8180197742417</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.4981588877068</v>
+        <v>358.9462649045759</v>
       </c>
       <c r="AD5" t="n">
-        <v>237947.3878747199</v>
+        <v>290019.898406178</v>
       </c>
       <c r="AE5" t="n">
-        <v>325570.1135879165</v>
+        <v>396818.0197742417</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.813331763137844e-06</v>
+        <v>3.065527316217915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>294498.1588877068</v>
+        <v>358946.2649045759</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.1182201498699</v>
+        <v>282.5197845227859</v>
       </c>
       <c r="AB6" t="n">
-        <v>301.1754597394221</v>
+        <v>386.5560330773125</v>
       </c>
       <c r="AC6" t="n">
-        <v>272.4316965643931</v>
+        <v>349.663667815213</v>
       </c>
       <c r="AD6" t="n">
-        <v>220118.2201498699</v>
+        <v>282519.7845227859</v>
       </c>
       <c r="AE6" t="n">
-        <v>301175.4597394221</v>
+        <v>386556.0330773125</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.844282603277388e-06</v>
+        <v>3.117851247136923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>272431.6965643931</v>
+        <v>349663.667815213</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>219.490095702562</v>
+        <v>281.891660075478</v>
       </c>
       <c r="AB7" t="n">
-        <v>300.3160321597209</v>
+        <v>385.6966054976109</v>
       </c>
       <c r="AC7" t="n">
-        <v>271.6542915466842</v>
+        <v>348.8862627975039</v>
       </c>
       <c r="AD7" t="n">
-        <v>219490.095702562</v>
+        <v>281891.660075478</v>
       </c>
       <c r="AE7" t="n">
-        <v>300316.0321597209</v>
+        <v>385696.6054976109</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.851121665238841e-06</v>
+        <v>3.129413020711032e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>271654.2915466842</v>
+        <v>348886.2627975039</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.1275562555799</v>
+        <v>388.6762798165802</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.2761572661411</v>
+        <v>531.8040332323238</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.7340117305835</v>
+        <v>481.0494026922785</v>
       </c>
       <c r="AD2" t="n">
-        <v>318127.5562555799</v>
+        <v>388676.2798165802</v>
       </c>
       <c r="AE2" t="n">
-        <v>435276.1572661411</v>
+        <v>531804.0332323238</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461923508770863e-06</v>
+        <v>2.531745986117513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>393734.0117305835</v>
+        <v>481049.4026922785</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.3525156705822</v>
+        <v>298.895922733746</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.1244273111921</v>
+        <v>408.9625878417769</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.9995696872172</v>
+        <v>369.9317724407539</v>
       </c>
       <c r="AD3" t="n">
-        <v>238352.5156705822</v>
+        <v>298895.922733746</v>
       </c>
       <c r="AE3" t="n">
-        <v>326124.427311192</v>
+        <v>408962.5878417769</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.776527786581637e-06</v>
+        <v>3.076574845345926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>294999.5696872172</v>
+        <v>369931.7724407539</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.0623456827817</v>
+        <v>270.515274410636</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.0990098285445</v>
+        <v>370.1309327402603</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.3625429257115</v>
+        <v>334.8061560015558</v>
       </c>
       <c r="AD4" t="n">
-        <v>220062.3456827817</v>
+        <v>270515.274410636</v>
       </c>
       <c r="AE4" t="n">
-        <v>301099.0098285445</v>
+        <v>370130.9327402603</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.904383312793017e-06</v>
+        <v>3.297993895895811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>272362.5429257115</v>
+        <v>334806.1560015558</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.0700246540857</v>
+        <v>265.5280908626773</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.5858547825695</v>
+        <v>363.3072481909332</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.8071346069239</v>
+        <v>328.6337143285151</v>
       </c>
       <c r="AD5" t="n">
-        <v>205070.0246540857</v>
+        <v>265528.0908626773</v>
       </c>
       <c r="AE5" t="n">
-        <v>280585.8547825695</v>
+        <v>363307.2481909332</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.930727104879251e-06</v>
+        <v>3.343615838133757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>253807.1346069239</v>
+        <v>328633.7143285151</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.1360699824906</v>
+        <v>226.7129875546179</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.8383621093504</v>
+        <v>310.198711443198</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.1850166730319</v>
+        <v>280.5937817897769</v>
       </c>
       <c r="AD2" t="n">
-        <v>181136.0699824906</v>
+        <v>226712.9875546179</v>
       </c>
       <c r="AE2" t="n">
-        <v>247838.3621093504</v>
+        <v>310198.711443198</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.095807124269632e-06</v>
+        <v>3.965718075265437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.16319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>224185.0166730319</v>
+        <v>280593.7817897769</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.4754454860155</v>
+        <v>225.0523630581427</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.5662224116921</v>
+        <v>307.9265717455397</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.1297267991492</v>
+        <v>278.5384919158943</v>
       </c>
       <c r="AD3" t="n">
-        <v>179475.4454860155</v>
+        <v>225052.3630581427</v>
       </c>
       <c r="AE3" t="n">
-        <v>245566.2224116921</v>
+        <v>307926.5717455397</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117496992816339e-06</v>
+        <v>4.006759973992536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>222129.7267991492</v>
+        <v>278538.4919158943</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.9040164216163</v>
+        <v>281.7985497494333</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.7235973328526</v>
+        <v>385.5692078417788</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.3548890962776</v>
+        <v>348.7710237951406</v>
       </c>
       <c r="AD2" t="n">
-        <v>224904.0164216163</v>
+        <v>281798.5497494333</v>
       </c>
       <c r="AE2" t="n">
-        <v>307723.5973328527</v>
+        <v>385569.2078417788</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.845977505846164e-06</v>
+        <v>3.362970115892858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>278354.8890962776</v>
+        <v>348771.0237951407</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.4678264412803</v>
+        <v>239.3622702605426</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.6605300492139</v>
+        <v>327.5060180884036</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.8332794621441</v>
+        <v>296.2493033797271</v>
       </c>
       <c r="AD3" t="n">
-        <v>182467.8264412803</v>
+        <v>239362.2702605426</v>
       </c>
       <c r="AE3" t="n">
-        <v>249660.5300492139</v>
+        <v>327506.0180884036</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.056957410689436e-06</v>
+        <v>3.747329683002864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>225833.2794621441</v>
+        <v>296249.3033797271</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.3519943139365</v>
+        <v>221.9973019157475</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.7148699029154</v>
+        <v>303.7465023107313</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.6003279333105</v>
+        <v>274.7573624411784</v>
       </c>
       <c r="AD2" t="n">
-        <v>169351.9943139365</v>
+        <v>221997.3019157475</v>
       </c>
       <c r="AE2" t="n">
-        <v>231714.8699029154</v>
+        <v>303746.5023107313</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.137914835474272e-06</v>
+        <v>4.189624240369745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.36284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>209600.3279333105</v>
+        <v>274757.3624411784</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.47734374014</v>
+        <v>411.7976548056971</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.1736813366877</v>
+        <v>563.4397185355069</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.018859819661</v>
+        <v>509.6658225910891</v>
       </c>
       <c r="AD2" t="n">
-        <v>330477.34374014</v>
+        <v>411797.6548056971</v>
       </c>
       <c r="AE2" t="n">
-        <v>452173.6813366876</v>
+        <v>563439.718535507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413710422871423e-06</v>
+        <v>2.432262215099308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.69618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>409018.859819661</v>
+        <v>509665.8225910891</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.7233824706144</v>
+        <v>317.7826461915869</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.5778165635699</v>
+        <v>434.8042361002278</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.3598635442846</v>
+        <v>393.3071300583994</v>
       </c>
       <c r="AD3" t="n">
-        <v>246723.3824706145</v>
+        <v>317782.6461915869</v>
       </c>
       <c r="AE3" t="n">
-        <v>337577.8165635699</v>
+        <v>434804.2361002278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731734247644794e-06</v>
+        <v>2.979416229092162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.99652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>305359.8635442846</v>
+        <v>393307.1300583994</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.6021028246113</v>
+        <v>279.4807247832455</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.7834822974855</v>
+        <v>382.3978574678201</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.9318657414806</v>
+        <v>345.9023426498542</v>
       </c>
       <c r="AD4" t="n">
-        <v>228602.1028246112</v>
+        <v>279480.7247832455</v>
       </c>
       <c r="AE4" t="n">
-        <v>312783.4822974855</v>
+        <v>382397.8574678201</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.855569709887247e-06</v>
+        <v>3.192472814676287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>282931.8657414806</v>
+        <v>345902.3426498543</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.8028921683207</v>
+        <v>269.7717902538481</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.6933287980352</v>
+        <v>369.1136649167369</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.42715847074</v>
+        <v>333.8859747913651</v>
       </c>
       <c r="AD5" t="n">
-        <v>208802.8921683207</v>
+        <v>269771.7902538481</v>
       </c>
       <c r="AE5" t="n">
-        <v>285693.3287980352</v>
+        <v>369113.6649167369</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.910751270453642e-06</v>
+        <v>3.287411652619667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>258427.15847074</v>
+        <v>333885.9747913652</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.5491780155916</v>
+        <v>270.518076101119</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.7144300180788</v>
+        <v>370.1347661367811</v>
       </c>
       <c r="AC6" t="n">
-        <v>259.3508072234675</v>
+        <v>334.8096235440929</v>
       </c>
       <c r="AD6" t="n">
-        <v>209549.1780155916</v>
+        <v>270518.076101119</v>
       </c>
       <c r="AE6" t="n">
-        <v>286714.4300180788</v>
+        <v>370134.7661367811</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.90744899146051e-06</v>
+        <v>3.281730143670757e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.89409722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>259350.8072234676</v>
+        <v>334809.6235440929</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.8101549764328</v>
+        <v>215.5150078739598</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.1322808326502</v>
+        <v>294.877141624132</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.7414105216784</v>
+        <v>266.7344810902794</v>
       </c>
       <c r="AD2" t="n">
-        <v>163810.1549764328</v>
+        <v>215515.0078739598</v>
       </c>
       <c r="AE2" t="n">
-        <v>224132.2808326502</v>
+        <v>294877.1416241321</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.133577145717361e-06</v>
+        <v>4.277097564451998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.64930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>202741.4105216784</v>
+        <v>266734.4810902794</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.4198083507583</v>
+        <v>338.9489783603707</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.0003118654702</v>
+        <v>463.7649455662293</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.6880013997281</v>
+        <v>419.5038700595767</v>
       </c>
       <c r="AD2" t="n">
-        <v>270419.8083507583</v>
+        <v>338948.9783603707</v>
       </c>
       <c r="AE2" t="n">
-        <v>370000.3118654701</v>
+        <v>463764.9455662293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635651348818954e-06</v>
+        <v>2.896860078939368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>334688.0013997281</v>
+        <v>419503.8700595768</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.166470752047</v>
+        <v>262.2378189821754</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.6637695237872</v>
+        <v>358.8053530474796</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.8277887131944</v>
+        <v>324.5614737391033</v>
       </c>
       <c r="AD3" t="n">
-        <v>213166.470752047</v>
+        <v>262237.8189821754</v>
       </c>
       <c r="AE3" t="n">
-        <v>291663.7695237871</v>
+        <v>358805.3530474796</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927548913320106e-06</v>
+        <v>3.413832355674008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.20659722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>263827.7887131944</v>
+        <v>324561.4737391033</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.760054854496</v>
+        <v>252.5602244658133</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.1110551421259</v>
+        <v>345.5640412846921</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.8092281251418</v>
+        <v>312.5838941867623</v>
       </c>
       <c r="AD4" t="n">
-        <v>193760.054854496</v>
+        <v>252560.2244658133</v>
       </c>
       <c r="AE4" t="n">
-        <v>265111.0551421259</v>
+        <v>345564.0412846921</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.997183387285735e-06</v>
+        <v>3.537160183389021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>239809.2281251418</v>
+        <v>312583.8941867623</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.7714974092448</v>
+        <v>374.6183492507066</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.3193671559908</v>
+        <v>512.5693524399699</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.8271328169093</v>
+        <v>463.6504528387028</v>
       </c>
       <c r="AD2" t="n">
-        <v>294771.4974092448</v>
+        <v>374618.3492507066</v>
       </c>
       <c r="AE2" t="n">
-        <v>403319.3671559909</v>
+        <v>512569.3524399699</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518686514919022e-06</v>
+        <v>2.648456671520622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>364827.1328169093</v>
+        <v>463650.4528387028</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.3472073785485</v>
+        <v>290.3603575415052</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.1712113367605</v>
+        <v>397.2838509831931</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.0917132724467</v>
+        <v>359.3676378367433</v>
       </c>
       <c r="AD3" t="n">
-        <v>230347.2073785485</v>
+        <v>290360.3575415052</v>
       </c>
       <c r="AE3" t="n">
-        <v>315171.2113367604</v>
+        <v>397283.8509831931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.822482319863178e-06</v>
+        <v>3.178250028135256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285091.7132724467</v>
+        <v>359367.6378367433</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.8812202966243</v>
+        <v>262.809029605009</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.591036097459</v>
+        <v>359.5869086216748</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.0981372138651</v>
+        <v>325.2684387462173</v>
       </c>
       <c r="AD4" t="n">
-        <v>202881.2202966243</v>
+        <v>262809.029605009</v>
       </c>
       <c r="AE4" t="n">
-        <v>277591.036097459</v>
+        <v>359586.9086216748</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.940802534674936e-06</v>
+        <v>3.384590151139944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>251098.1372138651</v>
+        <v>325268.4387462173</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.7974914234194</v>
+        <v>261.7253007318041</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.1082304423974</v>
+        <v>358.1041029666123</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.7568484493912</v>
+        <v>323.9271499817432</v>
       </c>
       <c r="AD5" t="n">
-        <v>201797.4914234194</v>
+        <v>261725.3007318041</v>
       </c>
       <c r="AE5" t="n">
-        <v>276108.2304423974</v>
+        <v>358104.1029666123</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.950235975781683e-06</v>
+        <v>3.40104124870954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.85069444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>249756.8484493913</v>
+        <v>323927.1499817432</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.6553241097845</v>
+        <v>451.3547267005794</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.4104783720578</v>
+        <v>617.5634494369316</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.2702502607805</v>
+        <v>558.6240605784151</v>
       </c>
       <c r="AD2" t="n">
-        <v>368655.3241097846</v>
+        <v>451354.7267005794</v>
       </c>
       <c r="AE2" t="n">
-        <v>504410.4783720577</v>
+        <v>617563.4494369316</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316020815669779e-06</v>
+        <v>2.237148165544584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>456270.2502607804</v>
+        <v>558624.0605784151</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.4178175521012</v>
+        <v>335.3571181491768</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.1023203175789</v>
+        <v>458.8504039635849</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.3985199223727</v>
+        <v>415.0583654098863</v>
       </c>
       <c r="AD3" t="n">
-        <v>273417.8175521012</v>
+        <v>335357.1181491768</v>
       </c>
       <c r="AE3" t="n">
-        <v>374102.3203175789</v>
+        <v>458850.4039635849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648449358320015e-06</v>
+        <v>2.802254655889981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.38715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>338398.5199223727</v>
+        <v>415058.3654098863</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.3868977479405</v>
+        <v>305.4114496910396</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.0126909706922</v>
+        <v>417.8774192695087</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.2304271307956</v>
+        <v>377.9957848690675</v>
       </c>
       <c r="AD4" t="n">
-        <v>243386.8977479404</v>
+        <v>305411.4496910396</v>
       </c>
       <c r="AE4" t="n">
-        <v>333012.6909706922</v>
+        <v>417877.4192695087</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.776348116749252e-06</v>
+        <v>3.019674068553126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50173611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>301230.4271307957</v>
+        <v>377995.7848690675</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.3346514541729</v>
+        <v>283.0218675819736</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.5222758839873</v>
+        <v>387.2430052692344</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.3138341155177</v>
+        <v>350.2850763453093</v>
       </c>
       <c r="AD5" t="n">
-        <v>231334.6514541729</v>
+        <v>283021.8675819736</v>
       </c>
       <c r="AE5" t="n">
-        <v>316522.2758839873</v>
+        <v>387243.0052692344</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.847073589125684e-06</v>
+        <v>3.139902684164865e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>286313.8341155177</v>
+        <v>350285.0763453093</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.2716713377593</v>
+        <v>278.2108824262865</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.9124419569381</v>
+        <v>380.6604031335377</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.6709738123759</v>
+        <v>344.3307085187034</v>
       </c>
       <c r="AD6" t="n">
-        <v>216271.6713377593</v>
+        <v>278210.8824262865</v>
       </c>
       <c r="AE6" t="n">
-        <v>295912.4419569381</v>
+        <v>380660.4031335377</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.869566453926705e-06</v>
+        <v>3.178139063580974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.92013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>267670.9738123759</v>
+        <v>344330.7085187034</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.1058545934857</v>
+        <v>294.6694814143921</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.4186906267043</v>
+        <v>403.1797843712054</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.45662611788</v>
+        <v>364.7008716171981</v>
       </c>
       <c r="AD2" t="n">
-        <v>237105.8545934857</v>
+        <v>294669.4814143921</v>
       </c>
       <c r="AE2" t="n">
-        <v>324418.6906267044</v>
+        <v>403179.7843712054</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.767003249591251e-06</v>
+        <v>3.186325002560349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>293456.62611788</v>
+        <v>364700.8716171981</v>
       </c>
     </row>
     <row r="3">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.0473949852344</v>
+        <v>244.6109322975859</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.926497767354</v>
+        <v>334.6874690421095</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.5012320156079</v>
+        <v>302.7453667336432</v>
       </c>
       <c r="AD3" t="n">
-        <v>187047.3949852344</v>
+        <v>244610.9322975859</v>
       </c>
       <c r="AE3" t="n">
-        <v>255926.497767354</v>
+        <v>334687.4690421094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03034833199216e-06</v>
+        <v>3.661198504094336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>231501.2320156079</v>
+        <v>302745.3667336432</v>
       </c>
     </row>
     <row r="4">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.581795554079</v>
+        <v>244.1453328664305</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.2894440848502</v>
+        <v>334.0504153596057</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.9249778424515</v>
+        <v>302.1691125604869</v>
       </c>
       <c r="AD4" t="n">
-        <v>186581.7955540789</v>
+        <v>244145.3328664305</v>
       </c>
       <c r="AE4" t="n">
-        <v>255289.4440848502</v>
+        <v>334050.4153596057</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040300770346959e-06</v>
+        <v>3.679145105592478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>230924.9778424515</v>
+        <v>302169.1125604869</v>
       </c>
     </row>
   </sheetData>
@@ -8244,28 +8244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.9140038771987</v>
+        <v>248.2537346734632</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.9534508698535</v>
+        <v>339.6717119618809</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.7621039799068</v>
+        <v>307.253920504582</v>
       </c>
       <c r="AD2" t="n">
-        <v>192914.0038771987</v>
+        <v>248253.7346734632</v>
       </c>
       <c r="AE2" t="n">
-        <v>263953.4508698535</v>
+        <v>339671.7119618809</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004331730310993e-06</v>
+        <v>3.739442338678398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>238762.1039799068</v>
+        <v>307253.920504582</v>
       </c>
     </row>
     <row r="3">
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.0168802652578</v>
+        <v>229.4418624075429</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.0975726617536</v>
+        <v>313.9324784064301</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.3738744990268</v>
+        <v>283.9712032744142</v>
       </c>
       <c r="AD3" t="n">
-        <v>174016.8802652578</v>
+        <v>229441.8624075429</v>
       </c>
       <c r="AE3" t="n">
-        <v>238097.5726617536</v>
+        <v>313932.4784064301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105669877164561e-06</v>
+        <v>3.928506928704442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.92881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>215373.8744990267</v>
+        <v>283971.2032744142</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.3414478820845</v>
+        <v>219.1756506230985</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.5416603940083</v>
+        <v>299.8857945296613</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.7755791213962</v>
+        <v>271.265115192195</v>
       </c>
       <c r="AD2" t="n">
-        <v>174341.4478820845</v>
+        <v>219175.6506230985</v>
       </c>
       <c r="AE2" t="n">
-        <v>238541.6603940083</v>
+        <v>299885.7945296613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131755583727028e-06</v>
+        <v>4.099445040694974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>215775.5791213962</v>
+        <v>271265.1151921951</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.0802985526308</v>
+        <v>219.9145012936448</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.5525884772404</v>
+        <v>300.8967226128933</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.6900256472114</v>
+        <v>272.1795617180102</v>
       </c>
       <c r="AD3" t="n">
-        <v>175080.2985526308</v>
+        <v>219914.5012936448</v>
       </c>
       <c r="AE3" t="n">
-        <v>239552.5884772404</v>
+        <v>300896.7226128933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130274474111716e-06</v>
+        <v>4.096596811979841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>216690.0256472114</v>
+        <v>272179.5617180102</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.527027381481</v>
+        <v>216.8541765360755</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.8496255171864</v>
+        <v>296.7094512675895</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.1039770468496</v>
+        <v>268.3919176730287</v>
       </c>
       <c r="AD2" t="n">
-        <v>166527.027381481</v>
+        <v>216854.1765360755</v>
       </c>
       <c r="AE2" t="n">
-        <v>227849.6255171864</v>
+        <v>296709.4512675895</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089696434305849e-06</v>
+        <v>4.310206447253387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.23090277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>206103.9770468496</v>
+        <v>268391.9176730287</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.7489343612186</v>
+        <v>351.1205161525305</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.5013218787472</v>
+        <v>480.4185805438121</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.7096167731421</v>
+        <v>434.5681054884225</v>
       </c>
       <c r="AD2" t="n">
-        <v>281748.9343612186</v>
+        <v>351120.5161525304</v>
       </c>
       <c r="AE2" t="n">
-        <v>385501.3218787472</v>
+        <v>480418.5805438121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579614388701886e-06</v>
+        <v>2.775320168675072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.53298611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>348709.6167731421</v>
+        <v>434568.1054884226</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.6237007891181</v>
+        <v>280.914464409653</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.2353247671588</v>
+        <v>384.359563276799</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.2949709649221</v>
+        <v>347.6768260096957</v>
       </c>
       <c r="AD3" t="n">
-        <v>221623.7007891181</v>
+        <v>280914.464409653</v>
       </c>
       <c r="AE3" t="n">
-        <v>303235.3247671588</v>
+        <v>384359.563276799</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875339709562942e-06</v>
+        <v>3.294897891721813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39756944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>274294.9709649221</v>
+        <v>347676.8260096957</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.7039054409292</v>
+        <v>257.0799204074811</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.5072055048893</v>
+        <v>351.7480886669913</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.6903774708293</v>
+        <v>318.1777447662617</v>
       </c>
       <c r="AD4" t="n">
-        <v>197703.9054409292</v>
+        <v>257079.9204074811</v>
       </c>
       <c r="AE4" t="n">
-        <v>270507.2055048893</v>
+        <v>351748.0886669913</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.97076356434628e-06</v>
+        <v>3.462553840317315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.84201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>244690.3774708293</v>
+        <v>318177.7447662617</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.9661278432778</v>
+        <v>257.3421428098297</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.8659897642185</v>
+        <v>352.1068729263204</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.0149198640051</v>
+        <v>318.5022871594375</v>
       </c>
       <c r="AD5" t="n">
-        <v>197966.1278432778</v>
+        <v>257342.1428098297</v>
       </c>
       <c r="AE5" t="n">
-        <v>270865.9897642185</v>
+        <v>352106.8729263204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.968867889212555e-06</v>
+        <v>3.459223213887528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.85069444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>245014.9198640051</v>
+        <v>318502.2871594375</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.9738271566956</v>
+        <v>426.7792640721555</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.6908506557946</v>
+        <v>583.9382172758293</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.3371975405951</v>
+        <v>528.2079733814587</v>
       </c>
       <c r="AD2" t="n">
-        <v>354973.8271566955</v>
+        <v>426779.2640721555</v>
       </c>
       <c r="AE2" t="n">
-        <v>485690.8506557946</v>
+        <v>583938.2172758293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361461644891574e-06</v>
+        <v>2.327947688217474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>439337.1975405951</v>
+        <v>528207.9733814587</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.2674630978706</v>
+        <v>326.7296523863434</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.9506457850392</v>
+        <v>447.0459246899495</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.311145555745</v>
+        <v>404.3804890704359</v>
       </c>
       <c r="AD3" t="n">
-        <v>265267.4630978706</v>
+        <v>326729.6523863435</v>
       </c>
       <c r="AE3" t="n">
-        <v>362950.6457850392</v>
+        <v>447045.9246899495</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688470554649458e-06</v>
+        <v>2.887096481247195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.19618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>328311.145555745</v>
+        <v>404380.4890704359</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.5829510200194</v>
+        <v>296.9597994539234</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.3349867717247</v>
+        <v>406.313498554593</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.5717880343223</v>
+        <v>367.5355085171186</v>
       </c>
       <c r="AD4" t="n">
-        <v>235582.9510200194</v>
+        <v>296959.7994539234</v>
       </c>
       <c r="AE4" t="n">
-        <v>322334.9867717248</v>
+        <v>406313.498554593</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.819615741325429e-06</v>
+        <v>3.111340135329341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>291571.7880343223</v>
+        <v>367535.5085171186</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.8829197515136</v>
+        <v>275.345019531438</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.6440466523561</v>
+        <v>376.7392030878583</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.7145095684405</v>
+        <v>340.7837423019447</v>
       </c>
       <c r="AD5" t="n">
-        <v>213882.9197515136</v>
+        <v>275345.019531438</v>
       </c>
       <c r="AE5" t="n">
-        <v>292644.046652356</v>
+        <v>376739.2030878583</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.883100639940642e-06</v>
+        <v>3.219892237052175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>264714.5095684405</v>
+        <v>340783.7423019447</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.6319372481644</v>
+        <v>274.0940370280887</v>
       </c>
       <c r="AB6" t="n">
-        <v>290.9323972018216</v>
+        <v>375.0275536373229</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.1662175391494</v>
+        <v>339.2354502726534</v>
       </c>
       <c r="AD6" t="n">
-        <v>212631.9372481644</v>
+        <v>274094.0370280888</v>
       </c>
       <c r="AE6" t="n">
-        <v>290932.3972018216</v>
+        <v>375027.5536373229</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.889553514538302e-06</v>
+        <v>3.23092593349037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>263166.2175391495</v>
+        <v>339235.4502726534</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.1143184383302</v>
+        <v>225.0798177055602</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.0214271675057</v>
+        <v>307.9641364053499</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.0685049958059</v>
+        <v>278.5724714572945</v>
       </c>
       <c r="AD2" t="n">
-        <v>168114.3184383302</v>
+        <v>225079.8177055602</v>
       </c>
       <c r="AE2" t="n">
-        <v>230021.4271675057</v>
+        <v>307964.1364053499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94796926526413e-06</v>
+        <v>4.175395351523749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>208068.5049958059</v>
+        <v>278572.4714572945</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.2701179036358</v>
+        <v>260.5395817541147</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.4913870772093</v>
+        <v>356.4817499511083</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.8171213632679</v>
+        <v>322.4596320610522</v>
       </c>
       <c r="AD2" t="n">
-        <v>204270.1179036358</v>
+        <v>260539.5817541147</v>
       </c>
       <c r="AE2" t="n">
-        <v>279491.3870772093</v>
+        <v>356481.7499511082</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920849172515939e-06</v>
+        <v>3.539035010471013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>252817.1213632679</v>
+        <v>322459.6320610521</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.1361804314969</v>
+        <v>234.3203034274009</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7337808798964</v>
+        <v>320.6073766314246</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.4721709152997</v>
+        <v>290.0090585810958</v>
       </c>
       <c r="AD3" t="n">
-        <v>178136.1804314969</v>
+        <v>234320.3034274009</v>
       </c>
       <c r="AE3" t="n">
-        <v>243733.7808798964</v>
+        <v>320607.3766314246</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085977874316893e-06</v>
+        <v>3.843273503148583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>220472.1709152997</v>
+        <v>290009.0585810958</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.4894489844891</v>
+        <v>315.4004578162372</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.625982564322</v>
+        <v>431.5448208703405</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.3079940530355</v>
+        <v>390.3587888434345</v>
       </c>
       <c r="AD2" t="n">
-        <v>247489.4489844891</v>
+        <v>315400.4578162372</v>
       </c>
       <c r="AE2" t="n">
-        <v>338625.9825643221</v>
+        <v>431544.8208703405</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708167510857581e-06</v>
+        <v>3.051516599019193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306307.9940530355</v>
+        <v>390358.7888434345</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.022938471758</v>
+        <v>253.5918491848203</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.521429390613</v>
+        <v>346.9755557373072</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.7488578839541</v>
+        <v>313.8606956810931</v>
       </c>
       <c r="AD3" t="n">
-        <v>205022.938471758</v>
+        <v>253591.8491848203</v>
       </c>
       <c r="AE3" t="n">
-        <v>280521.429390613</v>
+        <v>346975.5557373072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977986736845129e-06</v>
+        <v>3.533528955302768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>253748.8578839541</v>
+        <v>313860.6956810931</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.3830195875772</v>
+        <v>248.5802641784191</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.4904465056487</v>
+        <v>340.1184840360262</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.6296038918635</v>
+        <v>307.6580532790197</v>
       </c>
       <c r="AD4" t="n">
-        <v>190383.0195875772</v>
+        <v>248580.2641784191</v>
       </c>
       <c r="AE4" t="n">
-        <v>260490.4465056487</v>
+        <v>340118.4840360262</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.01559439513819e-06</v>
+        <v>3.600712292301083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>235629.6038918635</v>
+        <v>307658.0532790197</v>
       </c>
     </row>
   </sheetData>
